--- a/imageCreationExcel/back/108/108_11.xlsx
+++ b/imageCreationExcel/back/108/108_11.xlsx
@@ -486,39 +486,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.7750930008327861</v>
+        <v>1.076904420788259</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.6521505576988191</v>
+        <v>0.8003707256008417</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.2713340961322971</v>
+        <v>27.141835260326</v>
       </c>
       <c r="I2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_B_brightness0.775_gamma0.652_sharpness0.271.jpg</t>
+          <t>1_E_contrast1.077_sharpness0.8_equalization27.142.jpg</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0.8986794537077152</v>
+        <v>1.099630791437149</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -545,7 +545,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.2486839787506384</v>
+        <v>0.1625488379369819</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -553,14 +553,14 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9.474858264184572</v>
+        <v>15.77230585433861</v>
       </c>
       <c r="I3" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_C_contrast0.899_sharpness0.249_equalization9.475.jpg</t>
+          <t>2_9_contrast1.1_sharpness0.163_equalization15.772.jpg</t>
         </is>
       </c>
     </row>
@@ -570,7 +570,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -579,30 +579,30 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1.375932818991168</v>
+        <v>14.33020793162596</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.7389791072924625</v>
+        <v>1.004273695137522</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.6045863603892032</v>
+        <v>1.01585277576838</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_8_brightness1.376_gamma0.739_sharpness0.605.jpg</t>
+          <t>3_0_brightness14.33_contrast1.004_gamma1.016.jpg</t>
         </is>
       </c>
     </row>
@@ -612,16 +612,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1.094759546203763</v>
+        <v>0.9540775243184766</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -629,7 +629,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.2305739613049538</v>
+        <v>0.5893400877865762</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,14 +637,14 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9.591082778455791</v>
+        <v>19.4021770788654</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_T_contrast1.095_sharpness0.231_equalization9.591.jpg</t>
+          <t>4_8_gamma0.954_sharpness0.589_equalization19.402.jpg</t>
         </is>
       </c>
     </row>
@@ -654,39 +654,39 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1.058652512858966</v>
+        <v>14.84616402531489</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.5892218754201082</v>
+        <v>1.038462183312308</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>25.02122100046728</v>
+        <v>0.7394274455849099</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_1_contrast1.059_sharpness0.589_equalization25.021.jpg</t>
+          <t>5_2_brightness14.846_gamma1.038_sharpness0.739.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0.9510633920589872</v>
+        <v>0.694558783401823</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.049211733759983</v>
+        <v>0.2458641710285945</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.5541889801411957</v>
+        <v>25.64250888447831</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_contrast0.951_gamma1.049_sharpness0.554.jpg</t>
+          <t>6_T_gamma0.695_sharpness0.246_equalization25.643.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>15.84134773137955</v>
+        <v>9.600413654477419</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -755,22 +755,22 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.101530319908719</v>
+        <v>0.9921769134943912</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.3176403038511154</v>
+        <v>0.7815961062873077</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_S_brightness15.841_contrast1.102_sharpness0.318.jpg</t>
+          <t>7_B_brightness9.6_contrast0.992_gamma0.782.jpg</t>
         </is>
       </c>
     </row>
@@ -780,16 +780,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0.9104980431941562</v>
+        <v>3.073713801854664</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -797,22 +797,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.6310961759471907</v>
+        <v>0.7527113799334685</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>17.31785756145689</v>
+        <v>0.9311774044587815</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_7_contrast0.91_gamma0.631_equalization17.318.jpg</t>
+          <t>8_B_brightness3.074_gamma0.753_sharpness0.931.jpg</t>
         </is>
       </c>
     </row>
@@ -822,16 +822,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.9376457039728174</v>
+        <v>2.783260475562855</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -839,7 +839,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.7421760124918301</v>
+        <v>0.5869024052655556</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -847,14 +847,14 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.6687042000479777</v>
+        <v>0.6648769139738857</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_3_contrast0.938_gamma0.742_sharpness0.669.jpg</t>
+          <t>9_9_brightness2.783_gamma0.587_sharpness0.665.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.8083873007495618</v>
+        <v>29.35509940732091</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.8151785562145485</v>
+        <v>0.8679071093215013</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>20.57894442028763</v>
+        <v>0.1682832470280544</v>
       </c>
       <c r="I11" t="n">
         <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_E_contrast0.808_sharpness0.815_equalization20.579.jpg</t>
+          <t>10_1_brightness29.355_gamma0.868_sharpness0.168.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6015459746656768</v>
+        <v>18.35967874752728</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.3223471720539841</v>
+        <v>1.147595559779957</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>25.88801728241679</v>
+        <v>0.4114991031185868</v>
       </c>
       <c r="I12" t="n">
         <v>4</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_B_gamma0.602_sharpness0.322_equalization25.888.jpg</t>
+          <t>11_S_brightness18.36_contrast1.148_sharpness0.411.jpg</t>
         </is>
       </c>
     </row>
@@ -948,16 +948,16 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0.9444644071457245</v>
+        <v>22.63894604414538</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -965,7 +965,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.6570391520789681</v>
+        <v>0.7969742899324919</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -973,14 +973,14 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.8158314524981372</v>
+        <v>0.536169584263495</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_8_contrast0.944_gamma0.657_sharpness0.816.jpg</t>
+          <t>12_9_brightness22.639_gamma0.797_sharpness0.536.jpg</t>
         </is>
       </c>
     </row>
@@ -990,16 +990,16 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4.661781672532738</v>
+        <v>0.9320687826154327</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.7169287809023919</v>
+        <v>0.6962661603026357</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1015,14 +1015,14 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.919776298477279</v>
+        <v>0.966361982380247</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_T_brightness4.662_gamma0.717_sharpness0.92.jpg</t>
+          <t>13_I_contrast0.932_gamma0.696_sharpness0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,30 +1041,30 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>15.48685104624749</v>
+        <v>9.82483160886224</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.03876727974344</v>
+        <v>0.6116463050175026</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.064898336870074</v>
+        <v>0.2130986111862044</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_P_brightness15.487_contrast1.039_gamma1.065.jpg</t>
+          <t>14_C_brightness9.825_gamma0.612_sharpness0.213.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1083,7 +1083,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>18.17667972644785</v>
+        <v>15.76232634484877</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1091,7 +1091,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8177294605129591</v>
+        <v>0.8238317690890842</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1099,14 +1099,14 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.5206782210081813</v>
+        <v>1.097875865595004</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_2_brightness18.177_contrast0.818_gamma0.521.jpg</t>
+          <t>15_I_brightness15.762_contrast0.824_gamma1.098.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,39 +1116,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8840535428171377</v>
+        <v>18.90896967793272</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.9640589610275507</v>
+        <v>1.07141247765635</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>14.41444835560307</v>
+        <v>0.844689646509782</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_E_contrast0.884_sharpness0.964_equalization14.414.jpg</t>
+          <t>16_8_brightness18.909_contrast1.071_gamma0.845.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,24 +1158,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1.037581470328669</v>
+        <v>0.7950467941480667</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.6378626318135979</v>
+        <v>0.8347099340595336</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1183,14 +1183,14 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>20.60729556142432</v>
+        <v>14.87981593372665</v>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_B_contrast1.038_gamma0.638_equalization20.607.jpg</t>
+          <t>17_C_gamma0.795_sharpness0.835_equalization14.88.jpg</t>
         </is>
       </c>
     </row>
@@ -1200,39 +1200,39 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.097368932782442</v>
+        <v>3.424291553413249</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.2401726949463177</v>
+        <v>0.8870679949031195</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23.26243083780125</v>
+        <v>0.6609697273116906</v>
       </c>
       <c r="I19" t="n">
         <v>4</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_T_contrast1.097_sharpness0.24_equalization23.262.jpg</t>
+          <t>18_E_brightness3.424_contrast0.887_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,39 +1242,39 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21.21234915543082</v>
+        <v>0.7688809970346411</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.9060955791898944</v>
+        <v>0.872153026060418</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.1853238035811011</v>
+        <v>20.36116433850244</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_8_brightness21.212_gamma0.906_sharpness0.185.jpg</t>
+          <t>19_P_gamma0.769_sharpness0.872_equalization20.361.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,39 +1284,39 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1.064678941982009</v>
+        <v>0.7179040370865665</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.7017424544467303</v>
+        <v>0.48967225177651</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.5286087051352133</v>
+        <v>30.82445194069976</v>
       </c>
       <c r="I21" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_E_contrast1.065_gamma0.702_sharpness0.529.jpg</t>
+          <t>20_8_gamma0.718_sharpness0.49_equalization30.824.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,16 +1326,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0.933906660018637</v>
+        <v>1.050083685240748</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.5243819104116501</v>
+        <v>0.339232794449652</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>26.39859992413244</v>
+        <v>23.48998595327366</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_1_gamma0.934_sharpness0.524_equalization26.399.jpg</t>
+          <t>21_T_contrast1.05_sharpness0.339_equalization23.49.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8263323535619764</v>
+        <v>8.799879097077111</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.8210337102056037</v>
+        <v>1.063896763556058</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>13.95326304314739</v>
+        <v>0.8196407081467803</v>
       </c>
       <c r="I23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_1_gamma0.826_sharpness0.821_equalization13.953.jpg</t>
+          <t>22_9_brightness8.8_contrast1.064_gamma0.82.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,7 +1410,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1419,15 +1419,15 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.161931027034293</v>
+        <v>1.173469580864988</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.620393652467609</v>
+        <v>0.2465522781439582</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>29.58977999346351</v>
+        <v>24.68540372721932</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_S_contrast1.162_gamma0.62_equalization29.59.jpg</t>
+          <t>23_C_contrast1.173_sharpness0.247_equalization24.685.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1.065301311973189</v>
+        <v>0.9831897186047345</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,22 +1469,22 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.9237819625669385</v>
+        <v>0.8336301854814829</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.4957065502902421</v>
+        <v>14.82796251628112</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_P_contrast1.065_gamma0.924_sharpness0.496.jpg</t>
+          <t>24_C_contrast0.983_gamma0.834_equalization14.828.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1503,7 +1503,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>8.990342789433083</v>
+        <v>3.933965199261196</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1511,7 +1511,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.6306747645850888</v>
+        <v>0.9858682214253558</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1519,14 +1519,14 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.3038666720450297</v>
+        <v>0.9949098690287623</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_P_brightness8.99_gamma0.631_sharpness0.304.jpg</t>
+          <t>25_3_brightness3.934_gamma0.986_sharpness0.995.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,39 +1536,39 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0.619759485633305</v>
+        <v>15.14828915423982</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.008714200514814523</v>
+        <v>1.142751878424045</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>10.34079022708675</v>
+        <v>0.0106576701728699</v>
       </c>
       <c r="I27" t="n">
         <v>4</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_T_gamma0.62_sharpness0.009_equalization10.341.jpg</t>
+          <t>26_8_brightness15.148_contrast1.143_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>18.71209093675802</v>
+        <v>11.66561696614398</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.872913083195703</v>
+        <v>0.8402871233117034</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.9867130590103376</v>
+        <v>1.074474135937744</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_1_brightness18.712_contrast0.873_gamma0.987.jpg</t>
+          <t>27_1_brightness11.666_contrast0.84_gamma1.074.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>14.29435889853241</v>
+        <v>19.36082077191899</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1637,22 +1637,22 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.8598113092509354</v>
+        <v>0.9546828900206834</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.4930267685121899</v>
+        <v>0.8492992886993604</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_E_brightness14.294_contrast0.86_sharpness0.493.jpg</t>
+          <t>28_B_brightness19.361_contrast0.955_gamma0.849.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,24 +1662,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.8268118729539933</v>
+        <v>1.049577227831585</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5200924016125442</v>
+        <v>0.6283214030964984</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1687,14 +1687,14 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>10.60046032532983</v>
+        <v>14.7206542206624</v>
       </c>
       <c r="I30" t="n">
         <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_contrast0.827_gamma0.52_equalization10.6.jpg</t>
+          <t>29_1_gamma1.05_sharpness0.628_equalization14.721.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.5197551329231413</v>
+        <v>1.003794204313371</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.4332175269534568</v>
+        <v>1.031091247996291</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>30.5360305063366</v>
+        <v>0.09144134149074086</v>
       </c>
       <c r="I31" t="n">
         <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_8_gamma0.52_sharpness0.433_equalization30.536.jpg</t>
+          <t>30_7_contrast1.004_gamma1.031_sharpness0.091.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1755,7 +1755,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.945214350176497</v>
+        <v>0.8066352315911782</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.712494865154554</v>
+        <v>0.4712461899568981</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>9.059344138325502</v>
+        <v>6.177457766552768</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_9_contrast0.945_sharpness0.712_equalization9.059.jpg</t>
+          <t>31_3_contrast0.807_sharpness0.471_equalization6.177.jpg</t>
         </is>
       </c>
     </row>
@@ -1793,34 +1793,34 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.961848099691605</v>
+        <v>26.94891691083034</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.805340332762835</v>
+        <v>0.8278323085664128</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>15.73318887305672</v>
+        <v>0.766283134741476</v>
       </c>
       <c r="I33" t="n">
         <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_1_contrast0.962_gamma0.805_equalization15.733.jpg</t>
+          <t>32_1_brightness26.949_contrast0.828_sharpness0.766.jpg</t>
         </is>
       </c>
     </row>
@@ -1830,7 +1830,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1839,15 +1839,15 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>3.30480357072644</v>
+        <v>28.15113403859261</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9262622251825217</v>
+        <v>0.750422583379044</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.3761592500044996</v>
+        <v>0.8211991620928669</v>
       </c>
       <c r="I34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_3_brightness3.305_contrast0.926_sharpness0.376.jpg</t>
+          <t>33_0_brightness28.151_gamma0.75_sharpness0.821.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,30 +1881,30 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9349674610071598</v>
+        <v>1.019626384517316</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.09275836603508729</v>
+        <v>1.099181187486154</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>27.20851018751996</v>
+        <v>0.9089648170828414</v>
       </c>
       <c r="I35" t="n">
         <v>4</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_S_contrast0.935_sharpness0.093_equalization27.209.jpg</t>
+          <t>34_7_contrast1.02_gamma1.099_sharpness0.909.jpg</t>
         </is>
       </c>
     </row>
@@ -1919,34 +1919,34 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>25.79128322854117</v>
+        <v>1.077988565547923</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.7639451428237971</v>
+        <v>0.410921968279432</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.02150858642700791</v>
+        <v>24.53191548690758</v>
       </c>
       <c r="I36" t="n">
         <v>4</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_C_brightness25.791_gamma0.764_sharpness0.022.jpg</t>
+          <t>35_C_gamma1.078_sharpness0.411_equalization24.532.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,39 +1956,39 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>29.69940650865713</v>
+        <v>1.041322376035484</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.01937475935381</v>
+        <v>1.087320712965702</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.5206047331796291</v>
+        <v>0.1800558864076415</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_P_brightness29.699_contrast1.019_gamma0.521.jpg</t>
+          <t>36_C_contrast1.041_gamma1.087_sharpness0.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>10.84911935758276</v>
+        <v>23.5782552493007</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,7 +2015,7 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.8265483194777692</v>
+        <v>1.054245706253254</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -2023,14 +2023,14 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.9404817484929962</v>
+        <v>0.6396977579850422</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_8_brightness10.849_contrast0.827_gamma0.94.jpg</t>
+          <t>37_I_brightness23.578_contrast1.054_gamma0.64.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,24 +2040,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1.068189636201057</v>
+        <v>0.5426528348733026</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.8954310528431462</v>
+        <v>0.904928519392634</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -2065,14 +2065,14 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>20.82914590750417</v>
+        <v>15.3726271389505</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_E_contrast1.068_gamma0.895_equalization20.829.jpg</t>
+          <t>38_2_gamma0.543_sharpness0.905_equalization15.373.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>29.83950367180711</v>
+        <v>1.187067672607325</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9331292965008205</v>
+        <v>0.4514054479749051</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.9485526618935867</v>
+        <v>23.26142589033121</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_7_brightness29.84_contrast0.933_sharpness0.949.jpg</t>
+          <t>39_S_contrast1.187_sharpness0.451_equalization23.261.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,24 +2124,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>28.60965176165953</v>
+        <v>0.9876329927078109</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.12714093093377</v>
+        <v>0.9533473575130441</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.2356056523943833</v>
+        <v>0.2618490265547632</v>
       </c>
       <c r="I41" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_C_brightness28.61_contrast1.127_sharpness0.236.jpg</t>
+          <t>40_9_contrast0.988_gamma0.953_sharpness0.262.jpg</t>
         </is>
       </c>
     </row>
@@ -2171,11 +2171,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>29.24313894623597</v>
+        <v>1.008044400944674</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -2183,22 +2183,22 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6263192899485074</v>
+        <v>0.6849095754678823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.4177084247650743</v>
+        <v>18.89824031526566</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_E_brightness29.243_gamma0.626_sharpness0.418.jpg</t>
+          <t>41_E_contrast1.008_gamma0.685_equalization18.898.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,39 +2208,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.8720141027622655</v>
+        <v>23.84128537283368</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.4668210677263647</v>
+        <v>1.036376493887538</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>14.86951712522627</v>
+        <v>0.9329487921326272</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_9_contrast0.872_sharpness0.467_equalization14.87.jpg</t>
+          <t>42_I_brightness23.841_contrast1.036_gamma0.933.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,39 +2250,39 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>23.55517845083148</v>
+        <v>0.9403071191133002</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.095943861516035</v>
+        <v>0.9281959316005239</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.638193491354449</v>
+        <v>21.26486458292627</v>
       </c>
       <c r="I44" t="n">
         <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_I_brightness23.555_contrast1.096_sharpness0.638.jpg</t>
+          <t>43_0_contrast0.94_sharpness0.928_equalization21.265.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2301,7 +2301,7 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>15.77697928947519</v>
+        <v>21.84367564810122</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -2309,22 +2309,22 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.8748101096672687</v>
+        <v>1.033138571273877</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.6987665523662638</v>
+        <v>0.4739284786835686</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_0_brightness15.777_contrast0.875_gamma0.699.jpg</t>
+          <t>44_P_brightness21.844_contrast1.033_sharpness0.474.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,7 +2334,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2343,30 +2343,30 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1.063659834215076</v>
+        <v>1.005682277107804</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.6896929313956586</v>
+        <v>0.9495443899061091</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.40900884720858</v>
+        <v>0.697035280363334</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_E_contrast1.064_sharpness0.69_equalization11.409.jpg</t>
+          <t>45_P_contrast1.006_gamma0.95_sharpness0.697.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,7 +2376,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2385,15 +2385,15 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.158587963439307</v>
+        <v>1.132368756126966</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.01489067328338466</v>
+        <v>0.6400440103354437</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2401,14 +2401,14 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>25.17330960392983</v>
+        <v>14.38595693488748</v>
       </c>
       <c r="I47" t="n">
         <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_9_contrast1.159_sharpness0.015_equalization25.173.jpg</t>
+          <t>46_B_contrast1.132_gamma0.64_equalization14.386.jpg</t>
         </is>
       </c>
     </row>
@@ -2427,15 +2427,15 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>15.12095033753705</v>
+        <v>3.518717574301386</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.8439431700669148</v>
+        <v>0.6129268307701417</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2443,14 +2443,14 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.6086355777712538</v>
+        <v>0.9780971757329129</v>
       </c>
       <c r="I48" t="n">
         <v>2</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_brightness15.121_contrast0.844_sharpness0.609.jpg</t>
+          <t>47_E_brightness3.519_gamma0.613_sharpness0.978.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,16 +2460,16 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>29.16097976581525</v>
+        <v>0.8079150464645334</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -2477,22 +2477,22 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.8218157653321803</v>
+        <v>0.6956633322914925</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.3096131081643508</v>
+        <v>8.714735810124314</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_I_brightness29.161_gamma0.822_sharpness0.31.jpg</t>
+          <t>48_9_contrast0.808_gamma0.696_equalization8.715.jpg</t>
         </is>
       </c>
     </row>
